--- a/medicine/Mort/Monument_aux_victimes_civiles_du_nazisme_(Court-Saint-Étienne)/Monument_aux_victimes_civiles_du_nazisme_(Court-Saint-Étienne).xlsx
+++ b/medicine/Mort/Monument_aux_victimes_civiles_du_nazisme_(Court-Saint-Étienne)/Monument_aux_victimes_civiles_du_nazisme_(Court-Saint-Étienne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monument_aux_victimes_civiles_du_nazisme_(Court-Saint-%C3%89tienne)</t>
+          <t>Monument_aux_victimes_civiles_du_nazisme_(Court-Saint-Étienne)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Monument aux victimes civiles du nazisme[1],[2] ou Monument aux Résistants Martyrs[3] est un monument de style Art déco situé à Court-Saint-Étienne, commune de la province belge du Brabant wallon.
-Il commémore la mémoire des victimes civiles du nazisme, fusillées, pendues, décédées à la suite de la torture ou mortes dans les camps de concentration nazis[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Monument aux victimes civiles du nazisme, ou Monument aux Résistants Martyrs est un monument de style Art déco situé à Court-Saint-Étienne, commune de la province belge du Brabant wallon.
+Il commémore la mémoire des victimes civiles du nazisme, fusillées, pendues, décédées à la suite de la torture ou mortes dans les camps de concentration nazis.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monument_aux_victimes_civiles_du_nazisme_(Court-Saint-%C3%89tienne)</t>
+          <t>Monument_aux_victimes_civiles_du_nazisme_(Court-Saint-Étienne)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monument se dresse à la pointe sud du Parc de Wisterzée, à l'intersection de l’avenue des Combattants et de la rue Ernest Cosse[1],[2],[3], face au numéro 37 de l’avenue des Combattants[4] et face à l'avenue de Wisterzée, non loin de l'ancien site n°2 des Usines Émile Henricot et du Parc à Mitrailles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monument se dresse à la pointe sud du Parc de Wisterzée, à l'intersection de l’avenue des Combattants et de la rue Ernest Cosse face au numéro 37 de l’avenue des Combattants et face à l'avenue de Wisterzée, non loin de l'ancien site n°2 des Usines Émile Henricot et du Parc à Mitrailles.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monument_aux_victimes_civiles_du_nazisme_(Court-Saint-%C3%89tienne)</t>
+          <t>Monument_aux_victimes_civiles_du_nazisme_(Court-Saint-Étienne)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monument a été créé à l’initiative du "Comité du monument", présidé par Paul Dupuis[1],[2],[3].
-Le monument proprement dit (c'est-à-dire le parallélépipède, sans la statue) a été inauguré le 26 août 1951[1],[2],[3]. 
-La statue en pierre blanche (de type pierre de Savonnières), due au sculpteur bruxellois Louis Van Cutsem (Evere 1909-Schaerbeek 1992), a été ajoutée et inaugurée le 17 avril 1966[1],[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monument a été créé à l’initiative du "Comité du monument", présidé par Paul Dupuis.
+Le monument proprement dit (c'est-à-dire le parallélépipède, sans la statue) a été inauguré le 26 août 1951. 
+La statue en pierre blanche (de type pierre de Savonnières), due au sculpteur bruxellois Louis Van Cutsem (Evere 1909-Schaerbeek 1992), a été ajoutée et inaugurée le 17 avril 1966.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Monument_aux_victimes_civiles_du_nazisme_(Court-Saint-%C3%89tienne)</t>
+          <t>Monument_aux_victimes_civiles_du_nazisme_(Court-Saint-Étienne)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,14 +592,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La statue représente un prisonnier politique, pieds et mains entourés d’un carcan relié à une chaîne[1],[2],[3].
-Derrière la statue, le panneau central du monument honore la mémoire des résistants martyrs de la commune[1],[2],[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La statue représente un prisonnier politique, pieds et mains entourés d’un carcan relié à une chaîne.
+Derrière la statue, le panneau central du monument honore la mémoire des résistants martyrs de la commune :
 « Court Saint Etienne A ses Résistants Martyrs 1940-1945 »
 Un bloc de pierre inséré dans le soubassement ajoute :
 « Ici reposent des cendres de héros »
-Deux plaques en marbre fixées sur le monument portent les noms des onze victimes[1],[2],[3] (six à gauche et cinq à droite).
+Deux plaques en marbre fixées sur le monument portent les noms des onze victimes (six à gauche et cinq à droite).
 Le pied de la statue porte la signature du sculpteur, en bas à gauche.
 	Monument aux victimes civiles du nazisme
 </t>
